--- a/Grade12List.xlsx
+++ b/Grade12List.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1932F0-629F-7545-A941-5EC748C96FE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC8714-76D4-1347-8336-0BCE49A1482F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{19AAD86A-FDBD-FE46-A94C-153DF27610B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="Chill Zone" sheetId="4" r:id="rId3"/>
+    <sheet name="Quiet Work" sheetId="5" r:id="rId4"/>
+    <sheet name="Academic Support" sheetId="6" r:id="rId5"/>
+    <sheet name="Group Work" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>Student Number</t>
   </si>
@@ -402,14 +407,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2469550F-3B31-5347-80E8-871417AF0681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Grade12List.xlsx
+++ b/Grade12List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
@@ -22,7 +22,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>Student Number</t>
   </si>
@@ -60,6 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -89,10 +90,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +420,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +467,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +506,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +545,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +584,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +623,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>

--- a/Grade12List.xlsx
+++ b/Grade12List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499DB079-5523-8042-A7F4-9F5C7D195E84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF75B19-4DC8-1341-B186-75AEAA6BD7C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="9">
   <si>
     <t>Student Number</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Reason</t>
+  </si>
+  <si>
+    <t>Subject Missed</t>
   </si>
 </sst>
 </file>
@@ -90,10 +93,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -412,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,6 +455,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D2" s="1"/>
@@ -461,7 +471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,6 +502,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -500,7 +513,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,6 +544,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -539,7 +555,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,6 +586,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -578,7 +597,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -609,6 +628,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,7 +639,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,6 +670,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grade12List.xlsx
+++ b/Grade12List.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF75B19-4DC8-1341-B186-75AEAA6BD7C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AA1318-FB32-2644-BE74-927711E0DDAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DE3DE74F-B9EB-844A-A379-0C0BC4B8336B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="Test" sheetId="3" r:id="rId2"/>
-    <sheet name="Chill Zone" sheetId="4" r:id="rId3"/>
-    <sheet name="Quiet Work" sheetId="5" r:id="rId4"/>
-    <sheet name="Academic Support" sheetId="6" r:id="rId5"/>
-    <sheet name="Group Work" sheetId="7" r:id="rId6"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" r:id="rId5" sheetId="2"/>
+    <sheet name="Chill Zone" r:id="rId6" sheetId="3"/>
+    <sheet name="Quiet Work" r:id="rId7" sheetId="4"/>
+    <sheet name="Academic Support" r:id="rId8" sheetId="5"/>
+    <sheet name="Group Work" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="9">
   <si>
     <t>Student Number</t>
   </si>
@@ -93,10 +93,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -418,17 +416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="true"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -459,23 +454,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -507,17 +497,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -549,17 +539,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -591,17 +581,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -633,17 +623,17 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -675,6 +665,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Grade12List.xlsx
+++ b/Grade12List.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="10">
   <si>
     <t>Student Number</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Subject Missed</t>
+  </si>
+  <si>
+    <t>Subject Working</t>
   </si>
 </sst>
 </file>
@@ -93,8 +96,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -417,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
@@ -451,6 +470,9 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Grade12List.xlsx
+++ b/Grade12List.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="9">
   <si>
     <t>Student Number</t>
   </si>
@@ -93,8 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
